--- a/시장분석용_정보/시장분석용_4579035000.xlsx
+++ b/시장분석용_정보/시장분석용_4579035000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="60">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="91">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,6 +160,48 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
     <t>202001 2449400730</t>
   </si>
   <si>
@@ -184,13 +274,16 @@
     <t>202204 2449400730</t>
   </si>
   <si>
+    <t>JDQ4MTYyMiM2MSMkMiMkNiMkMDAkMzgxMTkxIzMxIyQxIyQ3IyQ2MiQ0NjEwMDIjNTEjJDEjJDIjJDgz</t>
+  </si>
+  <si>
+    <t>전라북도</t>
+  </si>
+  <si>
     <t>상하의원</t>
   </si>
   <si>
-    <t>전라북도 고창군 상하면 상하로 68 2층</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM2MSMkMiMkNiMkMDAkMzgxMTkxIzMxIyQxIyQ3IyQ2MiQ0NjEwMDIjNTEjJDEjJDIjJDgz</t>
+    <t>전라북도 고창군 상하면 상하로 68 상하의원</t>
   </si>
   <si>
     <t>일반의원</t>
@@ -551,13 +644,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,43 +747,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>16558</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2">
+        <v>202001</v>
+      </c>
+      <c r="F2">
+        <v>2020</v>
+      </c>
+      <c r="G2">
+        <v>2449400730</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2">
+        <v>4579035000</v>
+      </c>
+      <c r="K2">
         <v>32</v>
       </c>
-      <c r="C2">
-        <v>202001</v>
-      </c>
-      <c r="D2">
-        <v>2020</v>
-      </c>
-      <c r="E2">
-        <v>112854658</v>
-      </c>
-      <c r="F2">
-        <v>2449400730</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2">
-        <v>4579035000</v>
+      <c r="L2" t="s">
+        <v>90</v>
       </c>
       <c r="M2">
         <v>804557</v>
@@ -702,96 +885,186 @@
         <v>52100</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>36.02</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>63.98</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>35.06</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>0.96</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
+      <c r="X2">
+        <v>63.98</v>
+      </c>
+      <c r="Y2">
+        <v>36.02</v>
+      </c>
+      <c r="Z2">
+        <v>63.98</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0.96</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
         <v>35.06</v>
       </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
         <v>63.98</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>63.98</v>
       </c>
-      <c r="AD2">
+      <c r="AT2">
         <v>0.96</v>
       </c>
-      <c r="AE2">
+      <c r="AU2">
         <v>35.06</v>
       </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0.96</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>35.06</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>63.98</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>100</v>
+      </c>
+      <c r="BH2">
+        <v>100</v>
+      </c>
+      <c r="BI2">
+        <v>100</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>38053</v>
+        <v>1857</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3">
         <v>202002</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="E3">
-        <v>112854658</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>2449400730</v>
       </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J3">
+        <v>4579035000</v>
+      </c>
+      <c r="K3">
         <v>32</v>
       </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3">
-        <v>4579035000</v>
+      <c r="L3" t="s">
+        <v>90</v>
       </c>
       <c r="M3">
         <v>314045</v>
@@ -803,10 +1076,10 @@
         <v>15400</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>88.8</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -815,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -824,75 +1097,165 @@
         <v>0</v>
       </c>
       <c r="W3">
+        <v>8.77</v>
+      </c>
+      <c r="X3">
+        <v>88.8</v>
+      </c>
+      <c r="Y3">
+        <v>81.17</v>
+      </c>
+      <c r="Z3">
+        <v>18.83</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
         <v>2.44</v>
       </c>
-      <c r="X3">
+      <c r="AN3">
         <v>97.56</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
         <v>100</v>
       </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="BB3">
+        <v>16.4</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>81.17</v>
+      </c>
+      <c r="BH3">
+        <v>81.17</v>
+      </c>
+      <c r="BI3">
+        <v>81.17</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>33.3</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>59431</v>
+        <v>3685</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4">
         <v>202003</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2020</v>
       </c>
-      <c r="E4">
-        <v>112854658</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>2449400730</v>
       </c>
-      <c r="G4" t="s">
-        <v>56</v>
-      </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J4">
+        <v>4579035000</v>
+      </c>
+      <c r="K4">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4">
-        <v>4579035000</v>
+      <c r="L4" t="s">
+        <v>90</v>
       </c>
       <c r="M4">
         <v>295169</v>
@@ -904,10 +1267,10 @@
         <v>19867</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>92.95</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>7.05</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -916,25 +1279,25 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>83.89</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>9.06</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>92.95</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>7.05</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>92.95</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>7.05</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -946,54 +1309,144 @@
         <v>0</v>
       </c>
       <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>92.95</v>
+      </c>
+      <c r="AN4">
+        <v>7.05</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
         <v>16.11</v>
       </c>
-      <c r="AE4">
+      <c r="AU4">
         <v>83.89</v>
       </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>83.89</v>
+      </c>
+      <c r="BA4">
+        <v>16.11</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>100</v>
+      </c>
+      <c r="BH4">
+        <v>100</v>
+      </c>
+      <c r="BI4">
+        <v>100</v>
+      </c>
+      <c r="BJ4">
+        <v>33.3</v>
+      </c>
+      <c r="BK4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
-        <v>80895</v>
+        <v>5508</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5">
         <v>202004</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2020</v>
       </c>
-      <c r="E5">
-        <v>112854658</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>2449400730</v>
       </c>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J5">
+        <v>4579035000</v>
+      </c>
+      <c r="K5">
         <v>32</v>
       </c>
-      <c r="K5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5">
-        <v>4579035000</v>
+      <c r="L5" t="s">
+        <v>90</v>
       </c>
       <c r="M5">
         <v>288735</v>
@@ -1005,96 +1458,186 @@
         <v>19067</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>97.2</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>9.44</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>2.8</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
+      <c r="Y5">
+        <v>90.56</v>
+      </c>
+      <c r="Z5">
+        <v>9.44</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>2.8</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
         <v>97.2</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
         <v>2.8</v>
       </c>
-      <c r="AE5">
+      <c r="AU5">
         <v>87.76000000000001</v>
       </c>
-      <c r="AF5">
+      <c r="AV5">
         <v>9.44</v>
       </c>
-      <c r="AG5">
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>97.2</v>
+      </c>
+      <c r="BB5">
+        <v>2.8</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="BI5">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
-        <v>102529</v>
+        <v>7329</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6">
         <v>202005</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2020</v>
       </c>
-      <c r="E6">
-        <v>112854658</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>2449400730</v>
       </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J6">
+        <v>4579035000</v>
+      </c>
+      <c r="K6">
         <v>32</v>
       </c>
-      <c r="K6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6">
-        <v>4579035000</v>
+      <c r="L6" t="s">
+        <v>90</v>
       </c>
       <c r="M6">
         <v>280335</v>
@@ -1106,7 +1649,7 @@
         <v>27700</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1124,78 +1667,168 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>100</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
         <v>9.75</v>
       </c>
-      <c r="Y6">
+      <c r="AO6">
         <v>90.25</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
         <v>100</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>100</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>90.25</v>
+      </c>
+      <c r="BH6">
+        <v>90.25</v>
+      </c>
+      <c r="BI6">
+        <v>100</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
-        <v>145976</v>
+        <v>10986</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7">
         <v>202007</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2020</v>
       </c>
-      <c r="E7">
-        <v>112854658</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>2449400730</v>
       </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J7">
+        <v>4579035000</v>
+      </c>
+      <c r="K7">
         <v>32</v>
       </c>
-      <c r="K7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7">
-        <v>4579035000</v>
+      <c r="L7" t="s">
+        <v>90</v>
       </c>
       <c r="M7">
         <v>55260</v>
@@ -1207,7 +1840,7 @@
         <v>5400</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1225,78 +1858,168 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
+        <v>50</v>
+      </c>
+      <c r="Z7">
+        <v>50</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
         <v>100</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
         <v>50</v>
       </c>
-      <c r="AD7">
+      <c r="AT7">
         <v>50</v>
       </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>50</v>
+      </c>
+      <c r="BB7">
+        <v>50</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
-        <v>167694</v>
+        <v>12815</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8">
         <v>202008</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2020</v>
       </c>
-      <c r="E8">
-        <v>112854658</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>2449400730</v>
       </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J8">
+        <v>4579035000</v>
+      </c>
+      <c r="K8">
         <v>32</v>
       </c>
-      <c r="K8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8">
-        <v>4579035000</v>
+      <c r="L8" t="s">
+        <v>90</v>
       </c>
       <c r="M8">
         <v>100557</v>
@@ -1308,16 +2031,16 @@
         <v>6267</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1329,75 +2052,165 @@
         <v>0</v>
       </c>
       <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
         <v>23.4</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
+        <v>45.74</v>
+      </c>
+      <c r="Z8">
+        <v>54.26</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>23.4</v>
+      </c>
+      <c r="AN8">
         <v>76.59999999999999</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
         <v>100</v>
       </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>100</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>22.34</v>
+      </c>
+      <c r="BH8">
+        <v>22.34</v>
+      </c>
+      <c r="BI8">
+        <v>22.34</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
-        <v>189402</v>
+        <v>14642</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9">
         <v>202009</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2020</v>
       </c>
-      <c r="E9">
-        <v>112854658</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>2449400730</v>
       </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J9">
+        <v>4579035000</v>
+      </c>
+      <c r="K9">
         <v>32</v>
       </c>
-      <c r="K9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9">
-        <v>4579035000</v>
+      <c r="L9" t="s">
+        <v>90</v>
       </c>
       <c r="M9">
         <v>70525</v>
@@ -1409,7 +2222,7 @@
         <v>6900</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1421,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>28.99</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>71.01000000000001</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1433,11 +2246,11 @@
         <v>0</v>
       </c>
       <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
         <v>100</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
       <c r="Z9">
         <v>0</v>
       </c>
@@ -1454,51 +2267,141 @@
         <v>0</v>
       </c>
       <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>100</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
         <v>28.99</v>
       </c>
-      <c r="AF9">
+      <c r="AV9">
         <v>71.01000000000001</v>
       </c>
-      <c r="AG9">
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>100</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
-        <v>211136</v>
+        <v>16474</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10">
         <v>202010</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>2020</v>
       </c>
-      <c r="E10">
-        <v>112854658</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>2449400730</v>
       </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J10">
+        <v>4579035000</v>
+      </c>
+      <c r="K10">
         <v>32</v>
       </c>
-      <c r="K10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10">
-        <v>4579035000</v>
+      <c r="L10" t="s">
+        <v>90</v>
       </c>
       <c r="M10">
         <v>52680</v>
@@ -1510,7 +2413,7 @@
         <v>5150</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1519,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>53.4</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1534,13 +2437,13 @@
         <v>0</v>
       </c>
       <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
         <v>53.4</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
       <c r="Z10">
-        <v>0</v>
+        <v>46.6</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1552,54 +2455,144 @@
         <v>0</v>
       </c>
       <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
         <v>46.6</v>
       </c>
-      <c r="AE10">
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
         <v>53.4</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>46.6</v>
+      </c>
+      <c r="AU10">
+        <v>53.4</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>46.6</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>53.4</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>46.6</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>46.6</v>
+      </c>
+      <c r="BI10">
+        <v>46.6</v>
+      </c>
+      <c r="BJ10">
+        <v>50</v>
+      </c>
+      <c r="BK10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
-        <v>232924</v>
+        <v>18307</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11">
         <v>202011</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2020</v>
       </c>
-      <c r="E11">
-        <v>112854658</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>2449400730</v>
       </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J11">
+        <v>4579035000</v>
+      </c>
+      <c r="K11">
         <v>32</v>
       </c>
-      <c r="K11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11">
-        <v>4579035000</v>
+      <c r="L11" t="s">
+        <v>90</v>
       </c>
       <c r="M11">
         <v>785330</v>
@@ -1611,7 +2604,7 @@
         <v>23783</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1620,87 +2613,177 @@
         <v>0</v>
       </c>
       <c r="S11">
+        <v>2.8</v>
+      </c>
+      <c r="T11">
+        <v>16.68</v>
+      </c>
+      <c r="U11">
         <v>63.84</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
       <c r="V11">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>63.84</v>
+      </c>
+      <c r="Z11">
+        <v>27.82</v>
+      </c>
+      <c r="AA11">
+        <v>8.34</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>63.84</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
         <v>2.8</v>
       </c>
-      <c r="Y11">
+      <c r="AO11">
         <v>33.36</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
         <v>100</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>2.8</v>
+      </c>
+      <c r="BB11">
+        <v>63.84</v>
+      </c>
+      <c r="BC11">
+        <v>33.36</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>2.8</v>
+      </c>
+      <c r="BH11">
+        <v>66.64</v>
+      </c>
+      <c r="BI11">
+        <v>66.64</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>33.3</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
-        <v>254767</v>
+        <v>20153</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12">
         <v>202012</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2020</v>
       </c>
-      <c r="E12">
-        <v>112854658</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>2449400730</v>
       </c>
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J12">
+        <v>4579035000</v>
+      </c>
+      <c r="K12">
         <v>32</v>
       </c>
-      <c r="K12" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12">
-        <v>4579035000</v>
+      <c r="L12" t="s">
+        <v>90</v>
       </c>
       <c r="M12">
         <v>447118</v>
@@ -1712,96 +2795,186 @@
         <v>17580</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>43.12</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>56.88</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
+        <v>20.14</v>
+      </c>
+      <c r="T12">
         <v>4.55</v>
       </c>
-      <c r="T12">
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>18.43</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>56.88</v>
+      </c>
+      <c r="Y12">
+        <v>79.86</v>
+      </c>
+      <c r="Z12">
+        <v>18.43</v>
+      </c>
+      <c r="AA12">
+        <v>1.71</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>4.55</v>
+      </c>
+      <c r="AJ12">
         <v>36.86</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
         <v>56.88</v>
       </c>
-      <c r="X12">
+      <c r="AN12">
         <v>1.71</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
         <v>4.55</v>
       </c>
-      <c r="AD12">
+      <c r="AT12">
         <v>93.73999999999999</v>
       </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
         <v>1.71</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>95.45</v>
+      </c>
+      <c r="BB12">
+        <v>4.55</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>4.55</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>41.41</v>
+      </c>
+      <c r="BH12">
+        <v>41.41</v>
+      </c>
+      <c r="BI12">
+        <v>43.12</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:63">
       <c r="A13" s="1">
-        <v>276594</v>
+        <v>21994</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13">
         <v>202101</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2021</v>
       </c>
-      <c r="E13">
-        <v>112854658</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>2449400730</v>
       </c>
-      <c r="G13" t="s">
-        <v>56</v>
-      </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J13">
+        <v>4579035000</v>
+      </c>
+      <c r="K13">
         <v>32</v>
       </c>
-      <c r="K13" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13">
-        <v>4579035000</v>
+      <c r="L13" t="s">
+        <v>90</v>
       </c>
       <c r="M13">
         <v>338017</v>
@@ -1813,96 +2986,186 @@
         <v>13320</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>17.87</v>
+      </c>
+      <c r="T13">
+        <v>82.13</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>27.48</v>
+      </c>
+      <c r="Z13">
         <v>11.71</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
+      <c r="AA13">
+        <v>60.81</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>11.71</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>30.93</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
         <v>57.36</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
         <v>11.71</v>
       </c>
-      <c r="AD13">
+      <c r="AT13">
         <v>2.7</v>
       </c>
-      <c r="AE13">
+      <c r="AU13">
         <v>85.59</v>
       </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>11.71</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>30.93</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>57.36</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>85.59</v>
+      </c>
+      <c r="BH13">
+        <v>85.59</v>
+      </c>
+      <c r="BI13">
+        <v>85.59</v>
+      </c>
+      <c r="BJ13">
+        <v>50</v>
+      </c>
+      <c r="BK13">
+        <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:63">
       <c r="A14" s="1">
-        <v>298414</v>
+        <v>23821</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14">
         <v>202102</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>2021</v>
       </c>
-      <c r="E14">
-        <v>112854658</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
         <v>2449400730</v>
       </c>
-      <c r="G14" t="s">
-        <v>56</v>
-      </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J14">
+        <v>4579035000</v>
+      </c>
+      <c r="K14">
         <v>32</v>
       </c>
-      <c r="K14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14">
-        <v>4579035000</v>
+      <c r="L14" t="s">
+        <v>90</v>
       </c>
       <c r="M14">
         <v>373888</v>
@@ -1914,96 +3177,186 @@
         <v>24333</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>92.47</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
         <v>7.53</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>92.47</v>
+      </c>
+      <c r="Z14">
+        <v>7.53</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>7.53</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>22.6</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
         <v>69.86</v>
       </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
         <v>7.53</v>
       </c>
-      <c r="AD14">
+      <c r="AT14">
         <v>69.86</v>
       </c>
-      <c r="AE14">
+      <c r="AU14">
         <v>22.6</v>
       </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>7.53</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>92.47</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>7.53</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>30.14</v>
+      </c>
+      <c r="BH14">
+        <v>30.14</v>
+      </c>
+      <c r="BI14">
+        <v>30.14</v>
+      </c>
+      <c r="BJ14">
+        <v>66.7</v>
+      </c>
+      <c r="BK14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:63">
       <c r="A15" s="1">
-        <v>320333</v>
+        <v>25644</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15">
         <v>202103</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>2021</v>
       </c>
-      <c r="E15">
-        <v>112854658</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
         <v>2449400730</v>
       </c>
-      <c r="G15" t="s">
-        <v>56</v>
-      </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J15">
+        <v>4579035000</v>
+      </c>
+      <c r="K15">
         <v>32</v>
       </c>
-      <c r="K15" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15">
-        <v>4579035000</v>
+      <c r="L15" t="s">
+        <v>90</v>
       </c>
       <c r="M15">
         <v>700469</v>
@@ -2015,7 +3368,7 @@
         <v>34400</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2024,14 +3377,14 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="U15">
         <v>20.86</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
       <c r="V15">
         <v>0</v>
       </c>
@@ -2039,72 +3392,162 @@
         <v>0</v>
       </c>
       <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>74.06</v>
+      </c>
+      <c r="Z15">
+        <v>25.94</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>20.86</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
         <v>78.05</v>
       </c>
-      <c r="Y15">
+      <c r="AO15">
         <v>1.09</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
         <v>75.15000000000001</v>
       </c>
-      <c r="AE15">
+      <c r="AU15">
         <v>24.85</v>
       </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>98.91</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>1.09</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>96</v>
+      </c>
+      <c r="BH15">
+        <v>96</v>
+      </c>
+      <c r="BI15">
+        <v>100</v>
+      </c>
+      <c r="BJ15">
+        <v>25</v>
+      </c>
+      <c r="BK15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:63">
       <c r="A16" s="1">
-        <v>342321</v>
+        <v>27487</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16">
         <v>202104</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>2021</v>
       </c>
-      <c r="E16">
-        <v>112854658</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <v>2449400730</v>
       </c>
-      <c r="G16" t="s">
-        <v>56</v>
-      </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J16">
+        <v>4579035000</v>
+      </c>
+      <c r="K16">
         <v>32</v>
       </c>
-      <c r="K16" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16">
-        <v>4579035000</v>
+      <c r="L16" t="s">
+        <v>90</v>
       </c>
       <c r="M16">
         <v>672924</v>
@@ -2116,7 +3559,7 @@
         <v>44033</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -2125,87 +3568,177 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>98.86</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>100</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>22.86</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
         <v>77.14</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
         <v>78.27</v>
       </c>
-      <c r="AE16">
+      <c r="AU16">
         <v>21.73</v>
       </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>98.86</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>1.14</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>100</v>
+      </c>
+      <c r="BH16">
+        <v>100</v>
+      </c>
+      <c r="BI16">
+        <v>100</v>
+      </c>
+      <c r="BJ16">
+        <v>66.7</v>
+      </c>
+      <c r="BK16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:63">
       <c r="A17" s="1">
-        <v>364349</v>
+        <v>29330</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17">
         <v>202105</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>2021</v>
       </c>
-      <c r="E17">
-        <v>112854658</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
         <v>2449400730</v>
       </c>
-      <c r="G17" t="s">
-        <v>56</v>
-      </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J17">
+        <v>4579035000</v>
+      </c>
+      <c r="K17">
         <v>32</v>
       </c>
-      <c r="K17" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17">
-        <v>4579035000</v>
+      <c r="L17" t="s">
+        <v>90</v>
       </c>
       <c r="M17">
         <v>187349</v>
@@ -2217,7 +3750,7 @@
         <v>18500</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2226,87 +3759,177 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>33.51</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>100</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
         <v>66.48999999999999</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
         <v>33.51</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
         <v>33.51</v>
       </c>
-      <c r="AE17">
+      <c r="AU17">
         <v>66.48999999999999</v>
       </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="BB17">
+        <v>33.51</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>100</v>
+      </c>
+      <c r="BH17">
+        <v>100</v>
+      </c>
+      <c r="BI17">
+        <v>100</v>
+      </c>
+      <c r="BJ17">
+        <v>50</v>
+      </c>
+      <c r="BK17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:63">
       <c r="A18" s="1">
-        <v>386460</v>
+        <v>31178</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18">
         <v>202106</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>2021</v>
       </c>
-      <c r="E18">
-        <v>112854658</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
         <v>2449400730</v>
       </c>
-      <c r="G18" t="s">
-        <v>56</v>
-      </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J18">
+        <v>4579035000</v>
+      </c>
+      <c r="K18">
         <v>32</v>
       </c>
-      <c r="K18" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18">
-        <v>4579035000</v>
+      <c r="L18" t="s">
+        <v>90</v>
       </c>
       <c r="M18">
         <v>705856</v>
@@ -2318,96 +3941,186 @@
         <v>35025</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>91.58</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>8.42</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>11.28</v>
       </c>
       <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>72.45</v>
+      </c>
+      <c r="V18">
+        <v>7.85</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>8.42</v>
+      </c>
+      <c r="Y18">
+        <v>8.42</v>
+      </c>
+      <c r="Z18">
+        <v>83.73</v>
+      </c>
+      <c r="AA18">
+        <v>7.85</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
         <v>27.55</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
         <v>72.45</v>
       </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
         <v>72.45</v>
       </c>
-      <c r="AE18">
+      <c r="AU18">
         <v>27.55</v>
       </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>100</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>100</v>
+      </c>
+      <c r="BH18">
+        <v>100</v>
+      </c>
+      <c r="BI18">
+        <v>100</v>
+      </c>
+      <c r="BJ18">
+        <v>100</v>
+      </c>
+      <c r="BK18">
+        <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:63">
       <c r="A19" s="1">
-        <v>408583</v>
+        <v>33028</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19">
         <v>202107</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>2021</v>
       </c>
-      <c r="E19">
-        <v>112854658</v>
-      </c>
-      <c r="F19">
+      <c r="G19">
         <v>2449400730</v>
       </c>
-      <c r="G19" t="s">
-        <v>56</v>
-      </c>
       <c r="H19" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J19">
+        <v>4579035000</v>
+      </c>
+      <c r="K19">
         <v>32</v>
       </c>
-      <c r="K19" t="s">
-        <v>59</v>
-      </c>
-      <c r="L19">
-        <v>4579035000</v>
+      <c r="L19" t="s">
+        <v>90</v>
       </c>
       <c r="M19">
         <v>598131</v>
@@ -2419,96 +4132,186 @@
         <v>19700</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>60.49</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>39.51</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
+        <v>7.61</v>
+      </c>
+      <c r="T19">
+        <v>9.56</v>
+      </c>
+      <c r="U19">
+        <v>43.32</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>39.51</v>
+      </c>
+      <c r="Y19">
+        <v>47.12</v>
+      </c>
+      <c r="Z19">
+        <v>9.56</v>
+      </c>
+      <c r="AA19">
+        <v>43.32</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
         <v>4.15</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
         <v>4.65</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
         <v>42.47</v>
       </c>
-      <c r="Y19">
+      <c r="AO19">
         <v>48.73</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
         <v>43.32</v>
       </c>
-      <c r="AD19">
+      <c r="AT19">
         <v>46.62</v>
       </c>
-      <c r="AE19">
+      <c r="AU19">
         <v>5.41</v>
       </c>
-      <c r="AF19">
+      <c r="AV19">
         <v>4.65</v>
       </c>
-      <c r="AG19">
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>4.65</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>42.47</v>
+      </c>
+      <c r="BB19">
+        <v>9.56</v>
+      </c>
+      <c r="BC19">
+        <v>43.32</v>
+      </c>
+      <c r="BD19">
+        <v>4.15</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>4.65</v>
+      </c>
+      <c r="BG19">
+        <v>7.11</v>
+      </c>
+      <c r="BH19">
+        <v>7.11</v>
+      </c>
+      <c r="BI19">
+        <v>12.52</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:63">
       <c r="A20" s="1">
-        <v>430732</v>
+        <v>34877</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20">
         <v>202108</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>2021</v>
       </c>
-      <c r="E20">
-        <v>112854658</v>
-      </c>
-      <c r="F20">
+      <c r="G20">
         <v>2449400730</v>
       </c>
-      <c r="G20" t="s">
-        <v>56</v>
-      </c>
       <c r="H20" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J20">
+        <v>4579035000</v>
+      </c>
+      <c r="K20">
         <v>32</v>
       </c>
-      <c r="K20" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20">
-        <v>4579035000</v>
+      <c r="L20" t="s">
+        <v>90</v>
       </c>
       <c r="M20">
         <v>95921</v>
@@ -2520,38 +4323,38 @@
         <v>4575</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>75.41</v>
       </c>
       <c r="Q20">
         <v>24.59</v>
       </c>
       <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>24.59</v>
       </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
       <c r="T20">
-        <v>0</v>
+        <v>54.64</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>20.77</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>49.18</v>
+      </c>
+      <c r="Z20">
         <v>50.82</v>
       </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
       <c r="AA20">
         <v>0</v>
       </c>
@@ -2562,54 +4365,144 @@
         <v>0</v>
       </c>
       <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>24.59</v>
+      </c>
+      <c r="AH20">
+        <v>24.59</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>50.82</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
         <v>45.36</v>
       </c>
-      <c r="AE20">
+      <c r="AU20">
         <v>30.05</v>
       </c>
-      <c r="AF20">
+      <c r="AV20">
         <v>24.59</v>
       </c>
-      <c r="AG20">
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>24.59</v>
+      </c>
+      <c r="BA20">
+        <v>75.41</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>30.05</v>
+      </c>
+      <c r="BJ20">
+        <v>25</v>
+      </c>
+      <c r="BK20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:63">
       <c r="A21" s="1">
-        <v>475169</v>
+        <v>38581</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21">
         <v>202110</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>2021</v>
       </c>
-      <c r="E21">
-        <v>112854658</v>
-      </c>
-      <c r="F21">
+      <c r="G21">
         <v>2449400730</v>
       </c>
-      <c r="G21" t="s">
-        <v>56</v>
-      </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J21">
+        <v>4579035000</v>
+      </c>
+      <c r="K21">
         <v>32</v>
       </c>
-      <c r="K21" t="s">
-        <v>59</v>
-      </c>
-      <c r="L21">
-        <v>4579035000</v>
+      <c r="L21" t="s">
+        <v>90</v>
       </c>
       <c r="M21">
         <v>139406</v>
@@ -2621,96 +4514,186 @@
         <v>4583</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>67.64</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>32.36</v>
       </c>
       <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>16.73</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>23.27</v>
+      </c>
+      <c r="V21">
+        <v>44.36</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>15.64</v>
+      </c>
+      <c r="Y21">
+        <v>74.55</v>
+      </c>
+      <c r="Z21">
+        <v>20</v>
+      </c>
+      <c r="AA21">
+        <v>5.45</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
         <v>17.82</v>
       </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
         <v>20</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
         <v>62.18</v>
       </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
         <v>33.45</v>
       </c>
-      <c r="AE21">
+      <c r="AU21">
         <v>46.55</v>
       </c>
-      <c r="AF21">
+      <c r="AV21">
         <v>20</v>
       </c>
-      <c r="AG21">
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>20</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>38.91</v>
+      </c>
+      <c r="BB21">
+        <v>41.09</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>40</v>
+      </c>
+      <c r="BH21">
+        <v>40</v>
+      </c>
+      <c r="BI21">
+        <v>45.45</v>
+      </c>
+      <c r="BJ21">
+        <v>16.7</v>
+      </c>
+      <c r="BK21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:63">
       <c r="A22" s="1">
-        <v>519777</v>
+        <v>42304</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22">
         <v>202112</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>2021</v>
       </c>
-      <c r="E22">
-        <v>112854658</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
         <v>2449400730</v>
       </c>
-      <c r="G22" t="s">
-        <v>56</v>
-      </c>
       <c r="H22" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J22">
+        <v>4579035000</v>
+      </c>
+      <c r="K22">
         <v>32</v>
       </c>
-      <c r="K22" t="s">
-        <v>59</v>
-      </c>
-      <c r="L22">
-        <v>4579035000</v>
+      <c r="L22" t="s">
+        <v>90</v>
       </c>
       <c r="M22">
         <v>339453</v>
@@ -2722,96 +4705,186 @@
         <v>8213</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>36.23</v>
+      </c>
+      <c r="U22">
+        <v>27.85</v>
+      </c>
+      <c r="V22">
+        <v>18.57</v>
+      </c>
+      <c r="W22">
+        <v>17.35</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>39.27</v>
+      </c>
+      <c r="Z22">
+        <v>54.49</v>
+      </c>
+      <c r="AA22">
+        <v>6.24</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
         <v>5.33</v>
       </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
         <v>27.85</v>
       </c>
-      <c r="W22">
+      <c r="AM22">
         <v>11.57</v>
       </c>
-      <c r="X22">
+      <c r="AN22">
         <v>27.09</v>
       </c>
-      <c r="Y22">
+      <c r="AO22">
         <v>28.16</v>
       </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
         <v>60.27</v>
       </c>
-      <c r="AE22">
+      <c r="AU22">
         <v>28.16</v>
       </c>
-      <c r="AF22">
+      <c r="AV22">
         <v>11.57</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>27.85</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>41.25</v>
+      </c>
+      <c r="BB22">
+        <v>2.74</v>
+      </c>
+      <c r="BC22">
+        <v>28.16</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>27.85</v>
+      </c>
+      <c r="BG22">
+        <v>47.79</v>
+      </c>
+      <c r="BH22">
+        <v>47.79</v>
+      </c>
+      <c r="BI22">
+        <v>75.65000000000001</v>
+      </c>
+      <c r="BJ22">
+        <v>16.7</v>
+      </c>
+      <c r="BK22">
+        <v>33.3</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:63">
       <c r="A23" s="1">
-        <v>542069</v>
+        <v>44153</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23">
         <v>202201</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>2022</v>
       </c>
-      <c r="E23">
-        <v>112854658</v>
-      </c>
-      <c r="F23">
+      <c r="G23">
         <v>2449400730</v>
       </c>
-      <c r="G23" t="s">
-        <v>56</v>
-      </c>
       <c r="H23" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J23">
+        <v>4579035000</v>
+      </c>
+      <c r="K23">
         <v>32</v>
       </c>
-      <c r="K23" t="s">
-        <v>59</v>
-      </c>
-      <c r="L23">
-        <v>4579035000</v>
+      <c r="L23" t="s">
+        <v>90</v>
       </c>
       <c r="M23">
         <v>84485</v>
@@ -2823,7 +4896,7 @@
         <v>5133</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2832,87 +4905,177 @@
         <v>0</v>
       </c>
       <c r="S23">
+        <v>36.36</v>
+      </c>
+      <c r="T23">
+        <v>36.36</v>
+      </c>
+      <c r="U23">
+        <v>27.27</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>72.73</v>
+      </c>
+      <c r="AA23">
+        <v>27.27</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
         <v>63.64</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
         <v>36.36</v>
       </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
         <v>36.36</v>
       </c>
-      <c r="AE23">
+      <c r="AU23">
         <v>63.64</v>
       </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>36.36</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>63.64</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>100</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:63">
       <c r="A24" s="1">
-        <v>586722</v>
+        <v>47839</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24">
         <v>202203</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>2022</v>
       </c>
-      <c r="E24">
-        <v>112854658</v>
-      </c>
-      <c r="F24">
+      <c r="G24">
         <v>2449400730</v>
       </c>
-      <c r="G24" t="s">
-        <v>56</v>
-      </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J24">
+        <v>4579035000</v>
+      </c>
+      <c r="K24">
         <v>32</v>
       </c>
-      <c r="K24" t="s">
-        <v>59</v>
-      </c>
-      <c r="L24">
-        <v>4579035000</v>
+      <c r="L24" t="s">
+        <v>90</v>
       </c>
       <c r="M24">
         <v>118162</v>
@@ -2924,96 +5087,186 @@
         <v>7500</v>
       </c>
       <c r="P24">
+        <v>100</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>61.78</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>22.22</v>
+      </c>
+      <c r="V24">
         <v>16</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>61.78</v>
+      </c>
+      <c r="Z24">
+        <v>38.22</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>61.78</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>16</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
         <v>22.22</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
         <v>100</v>
       </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>61.78</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>16</v>
+      </c>
+      <c r="BB24">
+        <v>22.22</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>61.78</v>
+      </c>
+      <c r="BG24">
+        <v>16</v>
+      </c>
+      <c r="BH24">
+        <v>16</v>
+      </c>
+      <c r="BI24">
+        <v>16</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:63">
       <c r="A25" s="1">
-        <v>609132</v>
+        <v>49693</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25">
         <v>202204</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>2022</v>
       </c>
-      <c r="E25">
-        <v>112854658</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
         <v>2449400730</v>
       </c>
-      <c r="G25" t="s">
-        <v>56</v>
-      </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J25">
+        <v>4579035000</v>
+      </c>
+      <c r="K25">
         <v>32</v>
       </c>
-      <c r="K25" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25">
-        <v>4579035000</v>
+      <c r="L25" t="s">
+        <v>90</v>
       </c>
       <c r="M25">
         <v>851211</v>
@@ -3025,57 +5278,147 @@
         <v>31860</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>36.03</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>63.97</v>
       </c>
       <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>6.15</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>29.88</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>63.97</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>93.79000000000001</v>
+      </c>
+      <c r="AA25">
+        <v>6.21</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
         <v>2.64</v>
       </c>
-      <c r="S25">
+      <c r="AI25">
         <v>7.09</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
         <v>26.3</v>
       </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
         <v>63.97</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
         <v>70.18000000000001</v>
       </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
         <v>29.82</v>
       </c>
-      <c r="AG25">
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>3.58</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>28.94</v>
+      </c>
+      <c r="BB25">
+        <v>3.52</v>
+      </c>
+      <c r="BC25">
+        <v>63.97</v>
+      </c>
+      <c r="BD25">
+        <v>3.52</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="BH25">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="BI25">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="BJ25">
+        <v>20</v>
+      </c>
+      <c r="BK25">
         <v>0</v>
       </c>
     </row>
